--- a/_data/WePlayData/CleanedWPCIncomingParentReflection-November2019.xlsx
+++ b/_data/WePlayData/CleanedWPCIncomingParentReflection-November2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renarepenning/Desktop/School/weplaynoladata/_data/WePlayData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E60C4-4E09-2A42-990F-511ECE02EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F63055-495A-EC4F-B5F1-390E6E4F7733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="20120" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,8 +1191,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,13 +1533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
